--- a/biology/Botanique/Coton_de_Siam_blanc/Coton_de_Siam_blanc.xlsx
+++ b/biology/Botanique/Coton_de_Siam_blanc/Coton_de_Siam_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le coton de Siam blanc est une appellation que les planteurs de coton de Saint-Domingue[1] avaient imposée sur le marché mondial au XVIIIe siècle dans les moments forts de l'histoire des indiennes de coton en Europe, car elle répondait à la nécessité de produire des cotonnades douces et très blanches, pour pouvoir les imprimer de motifs en couleur
-Plus fin que le coton de la Jamaïque, encore plus blanc que le « Cayenne », le coton de Siam blanc a une rentabilité plus élevée, 24 % contre 14 %[2]. Il était cultivé à la Martinique, et aux Cayes, à Saint-Domingue, sous le même nom, après avoir été considéré comme une simple variété du "Siam couronné de Saint-Domingue", moins blanc et moins soyeux. Il est décrit par Alexandre Henri Tessier un planteur de Saint-Domingue dans une Encyclopédie méthodique, rédigée de retour d'un voyage chez les industriels écossais, mené afin de savoir quelles sont les variétés de coton qui conviennent le mieux au filage[3].
-Il a été concurrencé à la fin de la révolution cotonnière de Saint-Domingue par le Sea Island cotton et le Coton de Sainte-Marthe appelé aussi « coton de soie », jugé plus délicat et d'un meilleur rendement. Dans un mémoire adressé à la Société d'agriculture, Médéric Louis Élie Moreau de Saint-Méry explique que la Coton de Sainte-Marthe a été introduit à Saint-Domingue par les Espagnols au cours de l'année 1757. La Société nomma à la demande de Médéric Louis Élie Moreau de Saint-Méry, trois de ses membres comme commissaires, pour étudier sa capacité à être utilisé par les machines des premiers entrepreneurs du coton britannique et le test fut réussi[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le coton de Siam blanc est une appellation que les planteurs de coton de Saint-Domingue avaient imposée sur le marché mondial au XVIIIe siècle dans les moments forts de l'histoire des indiennes de coton en Europe, car elle répondait à la nécessité de produire des cotonnades douces et très blanches, pour pouvoir les imprimer de motifs en couleur
+Plus fin que le coton de la Jamaïque, encore plus blanc que le « Cayenne », le coton de Siam blanc a une rentabilité plus élevée, 24 % contre 14 %. Il était cultivé à la Martinique, et aux Cayes, à Saint-Domingue, sous le même nom, après avoir été considéré comme une simple variété du "Siam couronné de Saint-Domingue", moins blanc et moins soyeux. Il est décrit par Alexandre Henri Tessier un planteur de Saint-Domingue dans une Encyclopédie méthodique, rédigée de retour d'un voyage chez les industriels écossais, mené afin de savoir quelles sont les variétés de coton qui conviennent le mieux au filage.
+Il a été concurrencé à la fin de la révolution cotonnière de Saint-Domingue par le Sea Island cotton et le Coton de Sainte-Marthe appelé aussi « coton de soie », jugé plus délicat et d'un meilleur rendement. Dans un mémoire adressé à la Société d'agriculture, Médéric Louis Élie Moreau de Saint-Méry explique que la Coton de Sainte-Marthe a été introduit à Saint-Domingue par les Espagnols au cours de l'année 1757. La Société nomma à la demande de Médéric Louis Élie Moreau de Saint-Méry, trois de ses membres comme commissaires, pour étudier sa capacité à être utilisé par les machines des premiers entrepreneurs du coton britannique et le test fut réussi.
 </t>
         </is>
       </c>
